--- a/NotasEscolaresEstandarizadas.xlsx
+++ b/NotasEscolaresEstandarizadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL USER\Desktop\AnálisisDatosMultivariable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07D0D2BA-49A5-4DB8-AA01-AD96497CD098}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47BD8547-3517-4431-B0D5-662C74DFF688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8B479813-B1D7-481B-8B6D-38B8FB38F3BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AB222051-75D2-4A4A-8672-0E2CEC3A5163}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Estudiante</t>
+  </si>
   <si>
     <t>Matemáticas</t>
   </si>
@@ -426,35 +429,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5803BA9-21D6-4EA8-BCD1-C0A226829425}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDF6853-AEAE-4606-98B1-C0459E6829F1}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>0.22069291475074643</v>
@@ -463,7 +473,7 @@
         <v>-0.71434542699419834</v>
       </c>
       <c r="D2">
-        <v>1.0483713522815281</v>
+        <v>1.6967060807959473</v>
       </c>
       <c r="E2">
         <v>0.62416021319165327</v>
@@ -474,7 +484,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0.74615223558585486</v>
@@ -483,7 +493,7 @@
         <v>1.0870473889042145</v>
       </c>
       <c r="D3">
-        <v>-0.59783159758202931</v>
+        <v>-0.51133607914398493</v>
       </c>
       <c r="E3">
         <v>-0.80249170267498393</v>
@@ -494,7 +504,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0.85124409975287618</v>
@@ -503,7 +513,7 @@
         <v>0.96281340160087503</v>
       </c>
       <c r="D4">
-        <v>8.6642260519132781E-3</v>
+        <v>0.30215313767599056</v>
       </c>
       <c r="E4">
         <v>8.9165744741664527E-2</v>
@@ -514,7 +524,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>-1.8811443685896871</v>
@@ -523,7 +533,7 @@
         <v>-0.71434542699419834</v>
       </c>
       <c r="D5">
-        <v>-0.85775837913943298</v>
+        <v>-1.4410380412239565</v>
       </c>
       <c r="E5">
         <v>-0.80249170267498393</v>
@@ -534,7 +544,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>-0.83022572691947039</v>
@@ -543,7 +553,7 @@
         <v>-1.0249303952525453</v>
       </c>
       <c r="D6">
-        <v>0.78844457072412522</v>
+        <v>6.9727647155997427E-2</v>
       </c>
       <c r="E6">
         <v>0.89165744741664843</v>
@@ -554,7 +564,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>1.0614278280869196</v>
@@ -563,7 +573,7 @@
         <v>1.2112813762075529</v>
       </c>
       <c r="D7">
-        <v>8.6642260519132781E-3</v>
+        <v>-4.6485098103998625E-2</v>
       </c>
       <c r="E7">
         <v>8.9165744741664527E-2</v>
@@ -574,7 +584,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>-0.51495013441840554</v>
@@ -583,7 +593,7 @@
         <v>-0.77646242064586746</v>
       </c>
       <c r="D8">
-        <v>0.87508683124325959</v>
+        <v>0.53457862819598267</v>
       </c>
       <c r="E8">
         <v>0.98082319215831304</v>
@@ -594,7 +604,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>1.166519692253942</v>
@@ -603,7 +613,7 @@
         <v>1.2733983698592219</v>
       </c>
       <c r="D9">
-        <v>8.6642260519132781E-3</v>
+        <v>-0.27891058862399176</v>
       </c>
       <c r="E9">
         <v>8.9165744741664527E-2</v>
@@ -614,7 +624,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>-0.83022572691947039</v>
@@ -623,7 +633,7 @@
         <v>-1.0249303952525453</v>
       </c>
       <c r="D10">
-        <v>-2.1573922869264526</v>
+        <v>-1.4410380412239565</v>
       </c>
       <c r="E10">
         <v>-2.1399778737999569</v>
@@ -634,7 +644,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>1.0509186416702877E-2</v>
@@ -643,7 +653,7 @@
         <v>-0.27952647143251241</v>
       </c>
       <c r="D11">
-        <v>0.87508683124325959</v>
+        <v>1.115642354495965</v>
       </c>
       <c r="E11">
         <v>0.98082319215831304</v>
@@ -653,11 +663,6 @@
       </c>
     </row>
   </sheetData>
-  <dataConsolidate leftLabels="1" topLabels="1">
-    <dataRefs count="1">
-      <dataRef ref="A17:F27" sheet="NotasEscolares" r:id="rId1"/>
-    </dataRefs>
-  </dataConsolidate>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NotasEscolaresEstandarizadas.xlsx
+++ b/NotasEscolaresEstandarizadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL USER\Desktop\AnálisisDatosMultivariable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47BD8547-3517-4431-B0D5-662C74DFF688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4FB743-C452-4FCF-9CB2-1A68A05D5EB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AB222051-75D2-4A4A-8672-0E2CEC3A5163}"/>
   </bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
